--- a/Testing eGate1 y 2.xlsx
+++ b/Testing eGate1 y 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ailyn\Proyectos\EasyPOC\EasyPOC\REPOSITORIO POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D65532-4D39-4FB2-A529-D8214DB904A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCED7E42-C540-49BA-8418-986B6D22B65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20052" yWindow="-408" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -365,12 +365,110 @@
   <si>
     <t xml:space="preserve">Travesía irregular Intrusión, pasajero atraviesa las puertas en sentido contrario </t>
   </si>
+  <si>
+    <t>Probar que se guarda correctamente la información del pasajero</t>
+  </si>
+  <si>
+    <t>1- La información del pasajero queda guardada en el inspector
+2- El sistema contabiliza el pasajero
+3- No se muestra ninguna alarma</t>
+  </si>
+  <si>
+    <t>Para un vuelo de APV (ZP 848) se valida que no rebote al pasajero</t>
+  </si>
+  <si>
+    <t>El pasajero debe tener una tarjeta de embarque asociada a un vuelo de APV(G3, AR, UX, ZP)</t>
+  </si>
+  <si>
+    <t>Se probó el vuelo LA 407 con un pasajero real, demorando aproximadamente 16 segundos (porque el vuelo estaba habilitado para APV por error). Devolviendo APV el mensaje: "Invalid Logon Signature". 
+Nota: el pasajero quedó contabilizado</t>
+  </si>
+  <si>
+    <t>1- La información del pasajero queda guardada en el inspector
+2- El sistema contabiliza el pasajero
+3- Se muestra en el inspector el Status: APV- Invalid Logon Signature</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1- La información del pasajero queda guardada en el inspector
+2- El sistema contabiliza el pasajero
+3- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se muestra en el inspector el Status: APV- Invalid Logon Signature</t>
+    </r>
+  </si>
+  <si>
+    <t>Para un vuelo de APV (ZP 848) se valida que rebote al pasajero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- El pasajero escanea la tarjeta de embarque.
+</t>
+  </si>
+  <si>
+    <t>1- La pasarela lo dirige a puesto manual
+2- Las puertas no se abren
+3- La información del pasajero queda guardada en el inspector
+4- El sistema no contabiliza el pasajero
+5- Se muestra en el inspector el Status: APV- Invalid Logon Signature</t>
+  </si>
+  <si>
+    <t>El servicio que usa APV  rebota al pasajero(test 12 y test 13)</t>
+  </si>
+  <si>
+    <t>Caso exitoso para eGate1(Pasajero real)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El servicio que usa APV no rebota al pasajero pero tarda </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 segundos en responder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(pasajero real APV)</t>
+    </r>
+  </si>
+  <si>
+    <t>Invalid Logon Signature (LA 1 y LA 2)</t>
+  </si>
+  <si>
+    <t>El servicio que usa APV rebota al pasajero(test 15)</t>
+  </si>
+  <si>
+    <t>1- La pasarela lo dirige a puesto manual
+2- Las puertas no se abren
+3- La información del pasajero queda guardada en el inspector
+4- El sistema no contabiliza el pasajero
+5- Se muestra en el inspector el Status: APV- Unable to find Name in PAX List</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +492,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -409,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -481,37 +586,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -521,18 +630,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,29 +692,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,17 +1039,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -909,12 +1076,12 @@
       <c r="H2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -923,10 +1090,10 @@
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -938,12 +1105,12 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -952,8 +1119,8 @@
       <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
@@ -963,10 +1130,10 @@
       <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -978,7 +1145,7 @@
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
@@ -988,22 +1155,22 @@
       <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1013,20 +1180,20 @@
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
@@ -1036,12 +1203,12 @@
       <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1053,7 +1220,7 @@
       <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
@@ -1063,10 +1230,10 @@
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1078,7 +1245,7 @@
       <c r="D9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
@@ -1088,10 +1255,10 @@
       <c r="H9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1103,8 +1270,8 @@
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1113,12 +1280,12 @@
       <c r="H10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1130,22 +1297,20 @@
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1158,73 +1323,125 @@
         <v>54</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1238,14 +1455,21 @@
       <c r="I18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E3:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E3:E12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
